--- a/internal_testcase.xlsx
+++ b/internal_testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghj12\Desktop\2020 2학기\소개론\SeeReal_KAI_1128_TDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayoung\Desktop\PBL\SeeReal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E1C45-0523-4506-812D-DAC9887F803E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A70253-1CED-4E72-98D0-129A508CA03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1356" windowWidth="20760" windowHeight="6660" xr2:uid="{A3D842DA-4B98-4707-9D5C-8A22E53E947E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A3D842DA-4B98-4707-9D5C-8A22E53E947E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRUITE MANGO SALE 2019 2315 2316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RAIN RAINY DAY 2315 2020 SUMMER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>940s LOVELY PEACH PANTS 2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRUITS BANANA SALE 2019 2315 2316</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,22 +662,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039E6F49-09AA-4E5F-847F-D4E341E9DEE8}">
   <dimension ref="A1:J353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="61.59765625" customWidth="1"/>
-    <col min="8" max="8" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="5" max="5" width="10.9140625" customWidth="1"/>
+    <col min="7" max="7" width="61.58203125" customWidth="1"/>
+    <col min="8" max="8" width="33.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -727,14 +727,14 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -836,14 +836,14 @@
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -870,7 +870,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -971,14 +971,14 @@
         <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1352,1647 +1352,1648 @@
         <v>49</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G69" s="4"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G70" s="4"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G76" s="4"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G77" s="4"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G94" s="4"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G105" s="4"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G106" s="4"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G130" s="4"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G141" s="4"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G142" s="4"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G153" s="4"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G157" s="4"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G159" s="4"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G162" s="4"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G165" s="4"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G169" s="4"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G171" s="4"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G175" s="4"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G177" s="4"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G181" s="4"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G183" s="4"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G186" s="4"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G189" s="4"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G193" s="4"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G195" s="4"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="197" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G197" s="4"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="198" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="3"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G203" s="4"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G207" s="4"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G209" s="4"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G212" s="4"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G215" s="4"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G219" s="4"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G221" s="4"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="3"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G229" s="4"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G233" s="4"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G235" s="4"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="237" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G238" s="4"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G241" s="4"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G245" s="4"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G247" s="3"/>
       <c r="H247" s="4"/>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G248" s="3"/>
       <c r="H248" s="4"/>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G249" s="3"/>
       <c r="H249" s="4"/>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G250" s="4"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G252" s="3"/>
       <c r="H252" s="4"/>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
       <c r="I253" s="3"/>
     </row>
-    <row r="254" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G254" s="3"/>
       <c r="H254" s="4"/>
       <c r="I254" s="3"/>
     </row>
-    <row r="255" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="3"/>
     </row>
-    <row r="256" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G256" s="4"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
     </row>
-    <row r="259" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="3"/>
     </row>
-    <row r="260" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G260" s="4"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G262" s="4"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="3"/>
     </row>
-    <row r="264" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G265" s="4"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G268" s="4"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="3"/>
     </row>
-    <row r="270" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="3"/>
     </row>
-    <row r="271" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
       <c r="I271" s="3"/>
     </row>
-    <row r="272" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G272" s="4"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
     </row>
-    <row r="273" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
       <c r="I273" s="3"/>
     </row>
-    <row r="274" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G274" s="4"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
     </row>
-    <row r="275" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
       <c r="I275" s="3"/>
     </row>
-    <row r="276" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G276" s="4"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
-    <row r="277" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="3"/>
     </row>
-    <row r="278" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G278" s="4"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
     </row>
-    <row r="279" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="3"/>
     </row>
-    <row r="280" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G280" s="4"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
     </row>
-    <row r="281" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
       <c r="I281" s="3"/>
     </row>
-    <row r="282" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
     </row>
-    <row r="283" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="3"/>
     </row>
-    <row r="284" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G284" s="4"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
     </row>
-    <row r="285" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
       <c r="I285" s="3"/>
     </row>
-    <row r="286" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G286" s="4"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
     </row>
-    <row r="287" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
       <c r="I287" s="3"/>
     </row>
-    <row r="288" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
       <c r="I288" s="3"/>
     </row>
-    <row r="289" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G289" s="4"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
     </row>
-    <row r="290" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
       <c r="I290" s="3"/>
     </row>
-    <row r="291" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
       <c r="I291" s="3"/>
     </row>
-    <row r="292" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G292" s="4"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
     </row>
-    <row r="293" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
       <c r="I294" s="3"/>
     </row>
-    <row r="295" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G296" s="4"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
     </row>
-    <row r="297" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
       <c r="I297" s="3"/>
     </row>
-    <row r="298" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G298" s="4"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
     </row>
-    <row r="299" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
     </row>
-    <row r="300" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G300" s="4"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
     </row>
-    <row r="301" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="301" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
     </row>
-    <row r="302" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
       <c r="I302" s="3"/>
     </row>
-    <row r="303" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G303" s="4"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
     </row>
-    <row r="304" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
       <c r="I304" s="3"/>
     </row>
-    <row r="305" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
     </row>
-    <row r="306" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="3"/>
     </row>
-    <row r="307" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G307" s="4"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
     </row>
-    <row r="308" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
       <c r="I308" s="3"/>
     </row>
-    <row r="309" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G309" s="4"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
     </row>
-    <row r="310" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
       <c r="I310" s="3"/>
     </row>
-    <row r="311" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
       <c r="I311" s="3"/>
     </row>
-    <row r="312" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G312" s="4"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
     </row>
-    <row r="313" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
       <c r="I313" s="3"/>
     </row>
-    <row r="314" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G315" s="4"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
     </row>
-    <row r="316" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
       <c r="I316" s="3"/>
     </row>
-    <row r="317" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
       <c r="I317" s="3"/>
     </row>
-    <row r="318" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
       <c r="I318" s="3"/>
     </row>
-    <row r="319" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G319" s="4"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
     </row>
-    <row r="320" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
       <c r="I320" s="3"/>
     </row>
-    <row r="321" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
     </row>
-    <row r="322" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G322" s="4"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
     </row>
-    <row r="323" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G323" s="3"/>
       <c r="H323" s="4"/>
       <c r="I323" s="3"/>
     </row>
-    <row r="324" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
     </row>
-    <row r="325" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G325" s="4"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
     </row>
-    <row r="326" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G326" s="3"/>
       <c r="H326" s="4"/>
       <c r="I326" s="3"/>
     </row>
-    <row r="327" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
     </row>
-    <row r="328" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G328" s="4"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
     </row>
-    <row r="329" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G329" s="3"/>
       <c r="H329" s="4"/>
       <c r="I329" s="3"/>
     </row>
-    <row r="330" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
     </row>
-    <row r="331" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G331" s="4"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
     </row>
-    <row r="332" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G332" s="3"/>
       <c r="H332" s="4"/>
       <c r="I332" s="3"/>
     </row>
-    <row r="333" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
     </row>
-    <row r="334" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G334" s="4"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
     </row>
-    <row r="335" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G335" s="3"/>
       <c r="H335" s="4"/>
       <c r="I335" s="3"/>
     </row>
-    <row r="336" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G337" s="4"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
     </row>
-    <row r="338" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G338" s="3"/>
       <c r="H338" s="4"/>
       <c r="I338" s="3"/>
     </row>
-    <row r="339" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
     </row>
-    <row r="340" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G340" s="4"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
     </row>
-    <row r="341" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G341" s="3"/>
       <c r="H341" s="4"/>
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
     </row>
-    <row r="343" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G343" s="4"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
     </row>
-    <row r="344" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G344" s="3"/>
       <c r="H344" s="4"/>
       <c r="I344" s="3"/>
     </row>
-    <row r="345" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
     </row>
-    <row r="346" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G346" s="4"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
     </row>
-    <row r="347" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G347" s="3"/>
       <c r="H347" s="4"/>
       <c r="I347" s="3"/>
     </row>
-    <row r="348" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
     </row>
-    <row r="349" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="7:9" x14ac:dyDescent="0.45">
       <c r="H350" s="1"/>
     </row>
-    <row r="352" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="353" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H353" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>